--- a/Results/Simulated/T-matrix/T-C01-vs-C02.xlsx
+++ b/Results/Simulated/T-matrix/T-C01-vs-C02.xlsx
@@ -920,6 +920,556 @@
         <v>0.335447368421053</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.244973684210526</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.329275</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.361815789473684</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.290973684210526</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.31635</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.343026315789474</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.312925</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.34721052631579</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.255736842105263</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.324975</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.360105263157895</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.267078947368421</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.330475</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.337184210526316</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.277315789473684</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.3187</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.351736842105263</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.264289473684211</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.3244</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.352763157894737</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.282394736842105</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.32235</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.338973684210526</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.278473684210526</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.354157894736842</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.299473684210526</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.3183</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.330421052631579</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.271342105263158</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.3162</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.362973684210526</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.277105263157895</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.320625</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.347894736842105</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.291157894736842</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.313675</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.348473684210526</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.295052631578947</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.314925</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.341947368421053</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.267078947368421</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.319175</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.360973684210526</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.284684210526316</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.319775</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.342105263157895</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.272473684210526</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.3223</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.349</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.301078947368421</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.313175</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.339605263157895</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.292236842105263</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.31785</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.338605263157895</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.316225</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.343263157894737</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.280315789473684</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.317175</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.351947368421053</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.284131578947368</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.314075</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.354657894736842</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.271684210526316</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.32195</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.350526315789474</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.275105263157895</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.32095</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.349210526315789</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.284684210526316</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.31525</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.351631578947368</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.293631578947368</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.328473684210526</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.278342105263158</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.322025</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.34371052631579</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.271289473684211</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.3172</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.360921052631579</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.268236842105263</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.32165</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.354605263157895</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.280210526315789</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.318475</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.349315789473684</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.283736842105263</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.3169</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.349105263157895</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.284236842105263</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.314575</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.3535</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.290263157894737</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.315475</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.345578947368421</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.272421052631579</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.320325</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.353210526315789</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.262578947368421</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.320225</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.363263157894737</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.278236842105263</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.3173</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.353763157894737</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.254315789473684</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.334975</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.340473684210526</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.256763157894737</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.324425</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.360236842105263</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.273394736842105</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.3208</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.351236842105263</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.268631578947368</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.32715</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.342631578947368</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.278763157894737</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.3182</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.351342105263158</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.289526315789474</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.31355</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.350368421052632</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.270921052631579</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.3185</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.358552631578947</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.285289473684211</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.3211</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.33871052631579</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.28221052631579</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.314925</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.354789473684211</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.299657894736842</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.3173</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.332342105263158</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.303657894736842</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.31385</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.335605263157895</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.279947368421053</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.31855</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.349421052631579</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0.285184210526316</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.319675</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.341815789473684</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.287315789473684</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.31835</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.342473684210526</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1495,6 +2045,556 @@
         <v>0.354013157894737</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.262105263157895</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.32345</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.356947368421053</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.276697368421053</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.321775</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.345881578947368</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.290894736842105</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.31445</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.347105263157895</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.281302631578947</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.3271625</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.329934210526316</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.281052631578947</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.3157625</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.354184210526316</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.289328947368421</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.315525</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.346407894736842</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.266973684210526</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.3207625</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.357736842105263</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.280684210526316</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.3174875</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.350921052631579</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.273197368421053</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.3187125</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.355828947368421</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.291657894736842</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.3139625</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.347368421052632</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.283513157894737</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.3169125</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.349302631578947</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.280223684210526</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.3175375</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.351276315789474</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.285328947368421</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.317425</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.346407894736842</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.298421052631579</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.3191875</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.329605263157895</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.273526315789474</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.319475</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.353894736842105</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.282144736842105</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.3168625</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.350776315789474</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.286421052631579</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.3159625</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.348394736842105</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.298486842105263</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.3204625</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.326855263157895</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.27475</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.320875</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.349723684210526</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.277855263157895</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.3175625</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.353592105263158</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.287157894736842</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.3197</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.339789473684211</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.279526315789474</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.3167</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.353736842105263</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.260144736842105</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.3205875</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.364934210526316</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.26675</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.3186875</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.362328947368421</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.289526315789474</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.31715</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.34278947368421</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.294197368421053</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.3226125</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.326618421052632</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.288697368421053</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.3177625</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.342328947368421</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.290986842105263</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.3180125</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.339513157894737</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.27475</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.318175</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.355407894736842</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.284092105263158</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.3181625</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.346092105263158</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.281289473684211</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.3170375</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.351263157894737</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.277815789473684</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.320225</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.348026315789474</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.27125</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.3197375</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.355618421052632</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.286105263157895</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.320875</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.338368421052632</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.257289473684211</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.324125</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.360342105263158</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.270368421052632</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.3193625</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.357289473684211</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.284842105263158</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.319475</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.342578947368421</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.279736842105263</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.3192</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.348263157894737</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.274552631578947</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.321075</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.3495</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.287828947368421</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.3181</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.342486842105263</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.285368421052632</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.3159375</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.3495</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.271447368421053</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.3230375</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.348473684210526</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.287013157894737</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.317775</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.343986842105263</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.277171052631579</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.320625</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.347828947368421</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.26725</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.3211375</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.356671052631579</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.281789473684211</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.3244</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.335263157894737</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.289842105263158</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.321325</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.333684210526316</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.278407894736842</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.321575</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.344592105263158</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0.281078947368421</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.32085</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.343447368421053</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.266763157894737</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.349026315789474</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -2070,6 +3170,556 @@
         <v>0.350405263157895</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.276836842105263</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.31954</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.350447368421053</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.276042105263158</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.32158</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.346947368421053</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.283752631578947</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.317755</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.347289473684211</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.278005263157895</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.31789</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.352752631578947</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.282673684210526</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.317585</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.348726315789474</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.282873684210526</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.318695</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.346189473684211</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.279026315789474</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.31868</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.350068421052632</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.283105263157895</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.321045</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.341010526315789</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.274610526315789</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.32078</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.350063157894737</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.276963157894737</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.321345</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.346521052631579</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.276726315789474</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.32235</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.344642105263158</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.278947368421053</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.319645</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.348115789473684</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.271210526315789</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.322315</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.350231578947368</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.273147368421053</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.32731</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.337778947368421</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.275773684210526</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.318985</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.352678947368421</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.283278947368421</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.319435</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.344226315789474</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.283647368421053</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.31843</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.345973684210526</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.279510526315789</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.31938</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.348110526315789</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.275557894736842</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.32231</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.345894736842105</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.280373684210526</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.319525</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.346942105263158</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.277068421052632</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.317745</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.353994736842105</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.281447368421053</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.319555</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.345805263157895</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.279984210526316</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.3203</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.3457</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.281457894736842</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.317075</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.351015789473684</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.287463157894737</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.3179</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.343273684210526</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.289321052631579</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.32064</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.335647368421053</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.2772</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.321625</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.345694736842105</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.273036842105263</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.321285</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.350573684210526</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.275157894736842</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.319365</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.352494736842105</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.285521052631579</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.316135</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.348931578947368</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.2819</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.32071</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.342921052631579</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.283994736842105</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.31894</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.344552631578947</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.279436842105263</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.319235</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.348489473684211</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.287457894736842</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.31906</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.340836842105263</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.271252631578947</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.323635</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.34741052631579</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.276215789473684</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.31916</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.351868421052632</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.283457894736842</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.318995</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.344973684210526</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.282663157894737</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.317515</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.348884210526316</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.2823</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.317105</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.350110526315789</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.280368421052632</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.32008</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.345778947368421</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.281710526315789</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.317865</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.3491</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.266942105263158</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.321715</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.355763157894737</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.274215789473684</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.32045</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.351152631578947</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.283873684210526</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.31802</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.346610526315789</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.282473684210526</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.317385</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.349347368421053</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.276715789473684</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.32022</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.349136842105263</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.270247368421053</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.32261</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.350573684210526</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.285163157894737</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.31676</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.347973684210526</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0.27221052631579</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.3202</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.353684210526316</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.283373684210526</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.318115</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.346910526315789</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -2645,6 +4295,556 @@
         <v>0.351168421052632</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.273692105263158</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.32068</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.351192105263158</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.2795</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.3178175</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.35141052631579</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.282102631578947</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.3190625</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.346186842105263</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.284644736842105</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.3195725</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.342571052631579</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.282742105263158</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.3195625</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.344494736842105</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.275036842105263</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.3209175</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.349347368421053</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.281797368421053</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.317015</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.350802631578947</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.284813157894737</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.3178325</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.346065789473684</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.277713157894737</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.318405</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.35196052631579</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.286118421052632</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.3192825</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.341707894736842</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.279081578947368</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.3196475</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.347976315789474</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.285331578947368</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.3185225</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.344094736842105</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.27258947368421</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.3198975</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.353942105263158</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.275444736842105</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.3204725</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.349876315789474</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.276731578947368</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.3198475</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.349905263157895</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.283702631578947</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.3187825</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.345176315789474</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.283310526315789</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.3192125</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.344663157894737</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.276871052631579</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.3210525</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.347228947368421</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.280681578947368</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.320025</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.345581578947368</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.279884210526316</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.31788</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.350894736842105</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.28495</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.319155</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.343144736842105</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.272934210526316</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.320555</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.352213157894737</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.274339473684211</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.3212875</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.349265789473684</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.274481578947368</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.320115</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.351592105263158</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.281707894736842</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.3188925</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.346939473684211</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.279473684210526</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.32058</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.345621052631579</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.283094736842105</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.319015</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.345294736842105</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.280389473684211</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.319125</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.347768421052632</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.276097368421053</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.3192675</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.351760526315789</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.285005263157895</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.318675</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.3441</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.283010526315789</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.31921</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.344968421052632</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.273047368421053</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.32043</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.352363157894737</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.278713157894737</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.319935</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.347739473684211</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.2873</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.31756</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.344152631578947</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.277365789473684</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.3192175</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.350597368421053</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.284876315789474</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.31772</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.346239473684211</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.276355263157895</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.318945</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.352181578947368</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.278386842105263</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.3173525</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.353502631578947</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.273836842105263</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.3206</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.351215789473684</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.285281578947368</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.3192275</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.34266052631579</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.28136052631579</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.319315</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.346397368421053</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.277278947368421</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.31951</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.350068421052632</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.271326315789474</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.320275</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.354410526315789</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.27825</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.3190875</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.349986842105263</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.284115789473684</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.3183175</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.345742105263158</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.274681578947368</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.32046</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.350665789473684</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.275063157894737</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.317855</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.355768421052632</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.287576315789474</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.317635</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.343718421052632</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0.27181052631579</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.31997</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.354568421052632</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.280428947368421</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.3195625</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.346807894736842</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -3220,6 +5420,556 @@
         <v>0.348689473684211</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.281643421052632</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.31949125</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.345743421052632</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.279555263157895</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.31910375</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.348647368421053</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.278361842105263</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.31961</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.348775</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.281227631578947</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.3186175</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.347998684210526</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.277028947368421</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.32012</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.349034210526316</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.277410526315789</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.31993125</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.34905</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.278351315789474</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.3197475</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.348496052631579</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.281402631578947</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.31953625</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.345889473684211</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.278494736842105</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.3197325</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.348384210526316</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.284093421052632</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.3184725</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.345438157894737</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.280127631578947</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.31955</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.347135526315789</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.282247368421053</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.31953375</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.34505</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.274751315789474</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.32018875</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.351167105263158</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.279335526315789</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.31955</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.347927631578947</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.280069736842105</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.32042125</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.345359210526316</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.284015789473684</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.31814125</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.346213157894737</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.280125</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.31944375</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.347361842105263</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.281030263157895</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.31929375</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.346772368421053</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.286421052631579</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.31777125</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.344586842105263</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.282196052631579</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.31841625</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.347453947368421</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.280939473684211</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.3199</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.345586842105263</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.278984210526316</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.31919875</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.349018421052632</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.280257894736842</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.3198075</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.346463157894737</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.273563157894737</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.32098375</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.350681578947368</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.277634210526316</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.31919875</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.350368421052632</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.279657894736842</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.320225</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.346184210526316</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.283053947368421</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.31924875</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.344843421052632</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.282451315789474</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.318945</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.346085526315789</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.278434210526316</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.3195675</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.348792105263158</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.282994736842105</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.31926125</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.344876315789474</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.284472368421053</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.31798875</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.346077631578947</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.281973684210526</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.3184325</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.347642105263158</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.279751315789474</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.3177525</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.351296052631579</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.283257894736842</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.31904125</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.345076315789474</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.279453947368421</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.3195625</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.347782894736842</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.283427631578947</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.318235</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.346603947368421</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.276839473684211</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.3195825</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.350355263157895</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.279363157894737</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.3192175</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.3486</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.275417105263158</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.31869875</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.353638157894737</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.286502631578947</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.31852375</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.342921052631579</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.275510526315789</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.3192675</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.352347368421053</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.275667105263158</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.319265</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.352196052631579</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.274876315789474</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.32056375</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.350252631578947</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.281073684210526</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.31835125</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.348713157894737</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.278021052631579</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.3190075</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.350384210526316</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.277757894736842</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.31953875</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.349528947368421</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.279478947368421</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.319185</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.348552631578947</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.280248684210526</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.3188525</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.348482894736842</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0.272548684210526</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.3188125</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.356267105263158</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.276694736842105</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.3198975</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.349836842105263</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -3795,6 +6545,556 @@
         <v>0.348090526315789</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.280551578947368</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.319524</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.346766315789474</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.279285789473684</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.3200635</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.346896315789474</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.277751578947368</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.3192095</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.350228421052632</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.279193684210526</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.3200035</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.347114736842105</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.276801052631579</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.3201985</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.349096842105263</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.281065789473684</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.319418</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.346475263157895</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.280117894736842</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.3191955</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.347891578947368</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.280196842105263</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.319828</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.346481052631579</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.279051052631579</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.320024</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.347214210526316</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.279938947368421</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.319098</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.348275789473684</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.279850526315789</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.318658</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.349290526315789</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.280193684210526</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.3194525</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.347274736842105</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.27694</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.319153</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.351158947368421</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.281272631578947</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.319096</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.346946315789474</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.281162105263158</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.318241</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.348856842105263</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.279146315789474</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.3199055</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.347368421052632</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.280314210526316</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.318632</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.348881578947368</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.277050526315789</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.3198595</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.349561052631579</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.279371052631579</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.31947</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.348060526315789</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.282903684210526</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.3192735</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.344941578947368</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.282093157894737</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.3184755</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.347432105263158</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.277765263157895</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.3198785</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.348806315789474</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.279701052631579</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.3197825</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.347072631578947</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.276616315789474</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.319774</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.350175263157895</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.281120526315789</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.3186475</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.348042631578947</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.277826842105263</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.3194745</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.349595263157895</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.277492105263158</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.320199</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.348404736842105</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.279187368421053</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.319723</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.347711578947368</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.279078947368421</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.320046</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.34714</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.281171052631579</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.3195205</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.346154210526316</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.281516315789474</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.319847</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.345121578947368</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.278585789473684</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.3195385</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.348701578947368</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.279766315789474</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.3188075</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.34906</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.281415263157895</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.3188475</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.347326842105263</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.283254210526316</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.3195145</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.344083684210526</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.280725789473684</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.318479</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.348792105263158</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.27606</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.3201225</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.349997894736842</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.278537368421053</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.319099</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.349675263157895</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.278598947368421</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.3198255</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.348084210526316</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.28134947368421</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.319061</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.346943157894737</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.278371578947368</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.3196545</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.348671578947368</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.279582105263158</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.319841</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.347068421052632</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.278417368421053</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.319325</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.349319473684211</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.279907368421053</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.32003</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.346345263157895</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.280486315789474</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.3198975</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.346045263157895</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.279837368421053</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.3192385</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.348081578947368</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.279655263157895</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.3185755</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.349659473684211</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.279847368421053</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.319784</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.346923157894737</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0.279535263157895</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.318552</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.349828947368421</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.279797894736842</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.318993</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.348637894736842</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -4370,6 +7670,556 @@
         <v>0.347422894736842</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.280742631578947</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.31915075</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.347361052631579</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.281403157894737</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.318857</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.347318947368421</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.276771315789474</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.31987675</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.349803947368421</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.278498947368421</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.31949025</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.34889</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.278103684210526</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.31945425</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.349361052631579</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.282113421052632</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.319622</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.344998157894737</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.279536052631579</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.3189585</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.348972368421053</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.277747105263158</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.3201615</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.348228684210526</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.279206842105263</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.31965725</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.347830526315789</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.278981315789474</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.3192495</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.348914473684211</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.281000526315789</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.31898225</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.347457894736842</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.281113421052632</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.31937625</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.346515526315789</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.279540789473684</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.31922425</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.348408157894737</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.278654736842105</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.31912875</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.349495263157895</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.279583684210526</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.31902675</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.348781052631579</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.280718157894737</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.319296</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.347079736842105</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.280174473684211</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.31922475</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.347773421052632</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.276049473684211</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.3197215</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.350852631578947</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.280278421052632</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.31915925</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.347807368421053</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.281180526315789</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.31943375</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.346327368421053</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.280286052631579</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.319565</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.346945526315789</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.280805526315789</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.3189825</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.347652368421053</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.281018947368421</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.319332</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.346703157894737</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.278860789473684</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.31908325</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.349385</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.278928157894737</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.3195525</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.348329736842105</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.278129210526316</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.3196415</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.348941315789474</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.283496578947368</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.3191235</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.34466447368421</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.279990789473684</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.3193625</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.347667105263158</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.279483157894737</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.31951125</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.347861578947368</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.277729736842105</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.3203565</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.34783552631579</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.282562894736842</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.31895575</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.345951315789474</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.277759473684211</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.3198055</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.348965789473684</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.280541052631579</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.31914025</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.347584736842105</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.281340263157895</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.31876825</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.347568684210526</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.280550789473684</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.3194305</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.346963947368421</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.280477894736842</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.31920725</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.347506842105263</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.279427894736842</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.3192765</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.348411052631579</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.278814736842105</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.319967</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.347570526315789</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.278948684210526</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.3200945</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.347168157894737</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.280754473684211</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.31939025</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.346845</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.278696315789474</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.31918175</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.349342105263158</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.279810263157895</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.31961925</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.347307105263158</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.279966578947368</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.3199295</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.346497631578947</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.28009</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.31985775</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.346525263157895</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.280456578947368</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.31929375</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.347346052631579</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.279608157894737</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.3189145</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.348992894736842</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.280456315789474</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.3191815</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.347582631578947</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.279811315789474</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.319939</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.346632894736842</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0.282028684210526</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.319261</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.345842894736842</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.279036052631579</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.31910875</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.349156052631579</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -4945,6 +8795,556 @@
         <v>0.348237368421053</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.280525657894737</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.319057875</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.347773552631579</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.279455</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.318928875</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.349115789473684</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.280014736842105</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.3201205</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.346047368421053</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.279181710526316</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.319252375</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.348708026315789</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.279203947368421</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.319441125</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.348288421052632</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.280971842105263</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.319384375</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.34664</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.279878684210526</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.319544375</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.347396315789474</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.278959605263158</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.31961475</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.348167236842105</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.279036578947368</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.319694125</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.347923157894737</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.280004473684211</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.319520625</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.347320526315789</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.279259736842105</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.31936075</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.348401842105263</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.279205263157895</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.31975</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.347636842105263</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.278007894736842</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.319378625</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.349616052631579</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.279396052631579</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.319329375</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.348331578947368</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.279425</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.319397125</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.34816</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.281850263157895</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.319391</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.345747631578947</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.279486315789474</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.319555625</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.347765</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.278834868421053</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.319511375</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.348509605263158</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.279257631578947</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.31938425</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.348354473684211</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.28061</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.31895025</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.347915789473684</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.280443552631579</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.31930275</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.347340131578947</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.279546710526316</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.319241875</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.348365131578947</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.279476447368421</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.31948025</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.347933552631579</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.278123289473684</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.31965275</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.348923552631579</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.278551973684211</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.319744625</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.348301447368421</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.279283815789474</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.319194875</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.348726973684211</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.279349078947368</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.319397375</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.348235394736842</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.280891710526316</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.31935975</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.346771973684211</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.280184473684211</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.319341375</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.347517894736842</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.278006052631579</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.319772</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.348789736842105</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.279698026315789</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.3193975</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.347886184210526</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.279145526315789</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.31982525</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.347538157894737</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.280684736842105</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.31910025</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.347525263157895</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.279732631578947</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.319322625</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.348009210526316</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.280644078947368</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.319701125</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.346300921052632</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.279646973684211</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.319273</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.348199342105263</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.278184868421053</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.319355</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.349488815789474</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.280368815789474</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.319076375</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.347891447368421</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.279328552631579</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.31977725</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.347456184210526</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.280072236842105</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.31948875</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.347319868421053</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.277756578947368</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.319732375</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.349122631578947</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.279044078947368</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.319489125</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.348347236842105</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.278575789473684</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.319632</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.348514736842105</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.280451315789474</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.319294875</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.347348947368421</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.280785921052632</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.319254625</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.347099078947368</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.279453552631579</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.319510625</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.3478925</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.278808684210526</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.319340875</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.348894736842105</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.279852368421053</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.319532125</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.347448421052632</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0.279904868421053</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.319398625</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.347676973684211</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.279562368421053</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.31923425</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.348365526315789</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
